--- a/prep/TR/sentiment.xlsx
+++ b/prep/TR/sentiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="24915" windowHeight="6720"/>
+    <workbookView minimized="1" xWindow="-4005" yWindow="2115" windowWidth="24915" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,14 +446,14 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>

--- a/prep/TR/sentiment.xlsx
+++ b/prep/TR/sentiment.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eschemmel/Documents/github/mhi/prep/TR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-4005" yWindow="2115" windowWidth="24915" windowHeight="6720"/>
+    <workbookView xWindow="3640" yWindow="2200" windowWidth="24920" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Q. Using a 10-point scale where 10 means extremely favorable and 1 means not favorable at all, plese give me your opinion of Tourism as an industry in Hawaii?</t>
   </si>
@@ -103,12 +108,15 @@
   </si>
   <si>
     <t>Kauai</t>
+  </si>
+  <si>
+    <t>2016*estimated from 2017 report from HTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,6 +159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +243,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,29 +487,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -541,7 +586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -561,7 +606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -614,7 +659,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -673,7 +718,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -750,7 +795,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -827,27 +872,27 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>2009</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>41</v>
       </c>
       <c r="N7" s="2">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -855,40 +900,19 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>2010</v>
-      </c>
-      <c r="D8">
-        <v>8.1</v>
+        <v>2009</v>
       </c>
       <c r="E8" s="2">
         <v>41</v>
       </c>
-      <c r="F8">
-        <v>7.5</v>
-      </c>
-      <c r="G8">
-        <v>7.2</v>
-      </c>
-      <c r="I8">
-        <v>5.6</v>
-      </c>
-      <c r="J8">
-        <v>5.8</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>6.8</v>
-      </c>
       <c r="N8" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -896,52 +920,40 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D9">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="E9" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G9">
-        <v>7.3</v>
-      </c>
-      <c r="H9">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="I9">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J9">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="K9">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="N9" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O9">
-        <v>63</v>
-      </c>
-      <c r="R9">
-        <v>7.8</v>
-      </c>
-      <c r="S9">
-        <v>5.6</v>
-      </c>
-      <c r="T9">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -949,76 +961,52 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>8.06</v>
+        <v>7.9</v>
       </c>
       <c r="E10" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>6.78</v>
+        <v>6.9</v>
       </c>
       <c r="G10">
-        <v>7.63</v>
+        <v>7.3</v>
       </c>
       <c r="H10">
+        <v>7.9</v>
+      </c>
+      <c r="I10">
+        <v>6.2</v>
+      </c>
+      <c r="J10">
+        <v>6.5</v>
+      </c>
+      <c r="K10">
+        <v>6.6</v>
+      </c>
+      <c r="L10">
         <v>7</v>
       </c>
-      <c r="I10">
-        <v>5.63</v>
-      </c>
-      <c r="J10">
-        <v>6.21</v>
-      </c>
-      <c r="K10">
-        <v>6.46</v>
-      </c>
-      <c r="L10">
-        <v>7.04</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
       <c r="N10" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O10">
-        <v>56</v>
-      </c>
-      <c r="P10">
-        <v>6.92</v>
-      </c>
-      <c r="Q10">
-        <v>6.71</v>
+        <v>63</v>
       </c>
       <c r="R10">
-        <v>7.28</v>
+        <v>7.8</v>
       </c>
       <c r="S10">
-        <v>5.53</v>
+        <v>5.6</v>
       </c>
       <c r="T10">
-        <v>5.83</v>
-      </c>
-      <c r="U10">
-        <v>7.26</v>
-      </c>
-      <c r="V10">
-        <v>6.85</v>
-      </c>
-      <c r="W10">
-        <v>6.46</v>
-      </c>
-      <c r="X10">
-        <v>4.26</v>
-      </c>
-      <c r="Y10">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1026,96 +1014,153 @@
         <v>26</v>
       </c>
       <c r="C11">
+        <v>2014</v>
+      </c>
+      <c r="D11">
+        <v>8.06</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>6.78</v>
+      </c>
+      <c r="G11">
+        <v>7.63</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>5.63</v>
+      </c>
+      <c r="J11">
+        <v>6.21</v>
+      </c>
+      <c r="K11">
+        <v>6.46</v>
+      </c>
+      <c r="L11">
+        <v>7.04</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>64</v>
+      </c>
+      <c r="O11">
+        <v>56</v>
+      </c>
+      <c r="P11">
+        <v>6.92</v>
+      </c>
+      <c r="Q11">
+        <v>6.71</v>
+      </c>
+      <c r="R11">
+        <v>7.28</v>
+      </c>
+      <c r="S11">
+        <v>5.53</v>
+      </c>
+      <c r="T11">
+        <v>5.83</v>
+      </c>
+      <c r="U11">
+        <v>7.26</v>
+      </c>
+      <c r="V11">
+        <v>6.85</v>
+      </c>
+      <c r="W11">
+        <v>6.46</v>
+      </c>
+      <c r="X11">
+        <v>4.26</v>
+      </c>
+      <c r="Y11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
         <v>2015</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>7.95</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>40</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>6.62</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>7.4</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>6.9</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>5.42</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>6.06</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>6.4</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>6.73</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>6.58</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N12" s="2">
         <v>66</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>58</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>7.19</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>6.72</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <v>7.29</v>
       </c>
-      <c r="S11">
+      <c r="S12">
         <v>5.41</v>
       </c>
-      <c r="T11">
+      <c r="T12">
         <v>5.69</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>7.15</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>6.44</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <v>6.39</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <v>4.1900000000000004</v>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <v>7.62</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>2009</v>
-      </c>
-      <c r="E12" s="2">
-        <v>41</v>
-      </c>
-      <c r="N12" s="2">
-        <v>78</v>
-      </c>
-      <c r="O12">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1123,40 +1168,19 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>2010</v>
-      </c>
-      <c r="D13">
-        <v>8.1</v>
+        <v>2009</v>
       </c>
       <c r="E13" s="2">
         <v>41</v>
       </c>
-      <c r="F13">
-        <v>7.5</v>
-      </c>
-      <c r="G13">
-        <v>7.2</v>
-      </c>
-      <c r="I13">
-        <v>5.6</v>
-      </c>
-      <c r="J13">
-        <v>5.8</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>6.8</v>
-      </c>
       <c r="N13" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1164,52 +1188,40 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D14">
         <v>8.1</v>
       </c>
       <c r="E14" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G14">
-        <v>7.3</v>
-      </c>
-      <c r="H14">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="I14">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J14">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="K14">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="N14" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O14">
-        <v>63</v>
-      </c>
-      <c r="R14">
-        <v>7.6</v>
-      </c>
-      <c r="S14">
-        <v>5.4</v>
-      </c>
-      <c r="T14">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1217,76 +1229,52 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D15">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="E15" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>6.78</v>
+        <v>6.9</v>
       </c>
       <c r="G15">
-        <v>7.63</v>
+        <v>7.3</v>
       </c>
       <c r="H15">
+        <v>7.9</v>
+      </c>
+      <c r="I15">
+        <v>6.2</v>
+      </c>
+      <c r="J15">
+        <v>6.5</v>
+      </c>
+      <c r="K15">
+        <v>6.6</v>
+      </c>
+      <c r="L15">
         <v>7</v>
       </c>
-      <c r="I15">
-        <v>5.63</v>
-      </c>
-      <c r="J15">
-        <v>6.21</v>
-      </c>
-      <c r="K15">
-        <v>6.46</v>
-      </c>
-      <c r="L15">
-        <v>7.04</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
       <c r="N15" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O15">
-        <v>56</v>
-      </c>
-      <c r="P15">
-        <v>6.92</v>
-      </c>
-      <c r="Q15">
-        <v>6.71</v>
+        <v>63</v>
       </c>
       <c r="R15">
-        <v>7.28</v>
+        <v>7.6</v>
       </c>
       <c r="S15">
-        <v>5.53</v>
+        <v>5.4</v>
       </c>
       <c r="T15">
-        <v>5.83</v>
-      </c>
-      <c r="U15">
-        <v>7.26</v>
-      </c>
-      <c r="V15">
-        <v>6.85</v>
-      </c>
-      <c r="W15">
-        <v>6.46</v>
-      </c>
-      <c r="X15">
-        <v>4.26</v>
-      </c>
-      <c r="Y15">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1294,96 +1282,153 @@
         <v>27</v>
       </c>
       <c r="C16">
+        <v>2014</v>
+      </c>
+      <c r="D16">
+        <v>8.06</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>6.78</v>
+      </c>
+      <c r="G16">
+        <v>7.63</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>5.63</v>
+      </c>
+      <c r="J16">
+        <v>6.21</v>
+      </c>
+      <c r="K16">
+        <v>6.46</v>
+      </c>
+      <c r="L16">
+        <v>7.04</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>64</v>
+      </c>
+      <c r="O16">
+        <v>56</v>
+      </c>
+      <c r="P16">
+        <v>6.92</v>
+      </c>
+      <c r="Q16">
+        <v>6.71</v>
+      </c>
+      <c r="R16">
+        <v>7.28</v>
+      </c>
+      <c r="S16">
+        <v>5.53</v>
+      </c>
+      <c r="T16">
+        <v>5.83</v>
+      </c>
+      <c r="U16">
+        <v>7.26</v>
+      </c>
+      <c r="V16">
+        <v>6.85</v>
+      </c>
+      <c r="W16">
+        <v>6.46</v>
+      </c>
+      <c r="X16">
+        <v>4.26</v>
+      </c>
+      <c r="Y16">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
         <v>2015</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>7.95</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>40</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>6.62</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>7.4</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>6.9</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>5.42</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>6.06</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>6.4</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>6.73</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>6.48</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N17" s="2">
         <v>66</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>58</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>7.19</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>6.72</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>7.29</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>5.41</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>5.69</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>7.15</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>6.44</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>6.39</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <v>4.1900000000000004</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>7.62</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>2009</v>
-      </c>
-      <c r="E17" s="2">
-        <v>41</v>
-      </c>
-      <c r="N17" s="2">
-        <v>78</v>
-      </c>
-      <c r="O17">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1391,40 +1436,19 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>2010</v>
-      </c>
-      <c r="D18">
-        <v>8.1999999999999993</v>
+        <v>2009</v>
       </c>
       <c r="E18" s="2">
         <v>41</v>
       </c>
-      <c r="F18">
-        <v>7.5</v>
-      </c>
-      <c r="G18">
-        <v>7.2</v>
-      </c>
-      <c r="I18">
-        <v>5.6</v>
-      </c>
-      <c r="J18">
-        <v>5.8</v>
-      </c>
-      <c r="K18">
-        <v>7</v>
-      </c>
-      <c r="L18">
-        <v>6.8</v>
-      </c>
       <c r="N18" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1432,52 +1456,40 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E19" s="2">
+        <v>41</v>
+      </c>
+      <c r="F19">
         <v>7.5</v>
       </c>
-      <c r="E19" s="2">
-        <v>44</v>
-      </c>
-      <c r="F19">
-        <v>6.9</v>
-      </c>
       <c r="G19">
-        <v>7.3</v>
-      </c>
-      <c r="H19">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="I19">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J19">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="K19">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="N19" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O19">
-        <v>63</v>
-      </c>
-      <c r="R19">
-        <v>7.8</v>
-      </c>
-      <c r="S19">
-        <v>5.2</v>
-      </c>
-      <c r="T19">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1485,76 +1497,52 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D20">
-        <v>8.06</v>
+        <v>7.5</v>
       </c>
       <c r="E20" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>6.78</v>
+        <v>6.9</v>
       </c>
       <c r="G20">
-        <v>7.63</v>
+        <v>7.3</v>
       </c>
       <c r="H20">
+        <v>7.9</v>
+      </c>
+      <c r="I20">
+        <v>6.2</v>
+      </c>
+      <c r="J20">
+        <v>6.5</v>
+      </c>
+      <c r="K20">
+        <v>6.6</v>
+      </c>
+      <c r="L20">
         <v>7</v>
       </c>
-      <c r="I20">
-        <v>5.63</v>
-      </c>
-      <c r="J20">
-        <v>6.21</v>
-      </c>
-      <c r="K20">
-        <v>6.46</v>
-      </c>
-      <c r="L20">
-        <v>7.04</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
       <c r="N20" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O20">
-        <v>56</v>
-      </c>
-      <c r="P20">
-        <v>6.92</v>
-      </c>
-      <c r="Q20">
-        <v>6.71</v>
+        <v>63</v>
       </c>
       <c r="R20">
-        <v>7.28</v>
+        <v>7.8</v>
       </c>
       <c r="S20">
-        <v>5.53</v>
+        <v>5.2</v>
       </c>
       <c r="T20">
-        <v>5.83</v>
-      </c>
-      <c r="U20">
-        <v>7.26</v>
-      </c>
-      <c r="V20">
-        <v>6.85</v>
-      </c>
-      <c r="W20">
-        <v>6.46</v>
-      </c>
-      <c r="X20">
-        <v>4.26</v>
-      </c>
-      <c r="Y20">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1562,73 +1550,156 @@
         <v>28</v>
       </c>
       <c r="C21">
+        <v>2014</v>
+      </c>
+      <c r="D21">
+        <v>8.06</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <v>6.78</v>
+      </c>
+      <c r="G21">
+        <v>7.63</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>5.63</v>
+      </c>
+      <c r="J21">
+        <v>6.21</v>
+      </c>
+      <c r="K21">
+        <v>6.46</v>
+      </c>
+      <c r="L21">
+        <v>7.04</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>64</v>
+      </c>
+      <c r="O21">
+        <v>56</v>
+      </c>
+      <c r="P21">
+        <v>6.92</v>
+      </c>
+      <c r="Q21">
+        <v>6.71</v>
+      </c>
+      <c r="R21">
+        <v>7.28</v>
+      </c>
+      <c r="S21">
+        <v>5.53</v>
+      </c>
+      <c r="T21">
+        <v>5.83</v>
+      </c>
+      <c r="U21">
+        <v>7.26</v>
+      </c>
+      <c r="V21">
+        <v>6.85</v>
+      </c>
+      <c r="W21">
+        <v>6.46</v>
+      </c>
+      <c r="X21">
+        <v>4.26</v>
+      </c>
+      <c r="Y21">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
         <v>2015</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>7.95</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>40</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>6.62</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>7.4</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>6.9</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>5.42</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>6.06</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>6.4</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>6.73</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>6.72</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N22" s="2">
         <v>66</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>58</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <v>7.19</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <v>6.72</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <v>7.29</v>
       </c>
-      <c r="S21">
+      <c r="S22">
         <v>5.41</v>
       </c>
-      <c r="T21">
+      <c r="T22">
         <v>5.69</v>
       </c>
-      <c r="U21">
+      <c r="U22">
         <v>7.15</v>
       </c>
-      <c r="V21">
+      <c r="V22">
         <v>6.44</v>
       </c>
-      <c r="W21">
+      <c r="W22">
         <v>6.39</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <v>4.1900000000000004</v>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <v>7.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
+        <f>AVERAGE(E7,N7,O7)</f>
+        <v>54.333333333333336</v>
       </c>
     </row>
   </sheetData>
@@ -1638,24 +1709,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
